--- a/data/trans_orig/P14A24_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4472219-6EDD-467D-ABBF-7CE2BBB6BE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ACC904-C8AE-4349-98DD-9AC2D956E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92ACF66A-D8E1-4AC5-B9E6-DFAE49B759DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A68B4216-2B26-41BE-B59B-BE834CB6612A}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="140">
   <si>
     <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2015 (Tasa respuesta: 4,2%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>76,58%</t>
   </si>
   <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,19 +107,19 @@
     <t>23,42%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,7 +161,7 @@
     <t>88,09%</t>
   </si>
   <si>
-    <t>64,69%</t>
+    <t>63,5%</t>
   </si>
   <si>
     <t>52,66%</t>
@@ -173,7 +173,7 @@
     <t>11,91%</t>
   </si>
   <si>
-    <t>35,31%</t>
+    <t>36,5%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -185,13 +185,13 @@
     <t>92,45%</t>
   </si>
   <si>
-    <t>68,92%</t>
+    <t>61,13%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>75,96%</t>
+    <t>72,56%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -200,13 +200,13 @@
     <t>7,55%</t>
   </si>
   <si>
-    <t>31,08%</t>
+    <t>38,87%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>24,04%</t>
+    <t>27,44%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -215,49 +215,49 @@
     <t>83,75%</t>
   </si>
   <si>
-    <t>33,49%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>66,51%</t>
+    <t>67,99%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -269,13 +269,13 @@
     <t>93,85%</t>
   </si>
   <si>
-    <t>62,1%</t>
+    <t>64,55%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>75,22%</t>
+    <t>75,71%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -284,13 +284,13 @@
     <t>6,15%</t>
   </si>
   <si>
-    <t>37,9%</t>
+    <t>35,45%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>24,29%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -299,49 +299,49 @@
     <t>72,39%</t>
   </si>
   <si>
-    <t>28,78%</t>
+    <t>27,49%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>71,22%</t>
+    <t>72,51%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>20,77%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -350,103 +350,109 @@
     <t>84,89%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>91,34%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -861,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7E1160-52AF-436D-A5AC-6A4060E62CAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046B324C-DD63-4E26-8696-F7198838EB0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2258,10 +2264,10 @@
         <v>127</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2282,13 @@
         <v>10815</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -2291,13 +2297,13 @@
         <v>25233</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -2306,13 +2312,13 @@
         <v>36049</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,7 +2374,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A24_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ACC904-C8AE-4349-98DD-9AC2D956E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCC90115-9CC4-44ED-A95C-2555A5BA48DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A68B4216-2B26-41BE-B59B-BE834CB6612A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA49DDE1-8ACC-4932-A2EF-47D60FE8998C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="140">
-  <si>
-    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2015 (Tasa respuesta: 4,2%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="138">
+  <si>
+    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2016 (Tasa respuesta: 4,2%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>76,58%</t>
   </si>
   <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,19 +107,19 @@
     <t>23,42%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,19 +152,13 @@
     <t>Cordoba</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
     <t>87,39%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>64,94%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -173,7 +167,7 @@
     <t>11,91%</t>
   </si>
   <si>
-    <t>36,5%</t>
+    <t>35,06%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -185,13 +179,13 @@
     <t>92,45%</t>
   </si>
   <si>
-    <t>61,13%</t>
+    <t>61,38%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>72,56%</t>
+    <t>71,72%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -200,13 +194,13 @@
     <t>7,55%</t>
   </si>
   <si>
-    <t>38,87%</t>
+    <t>38,62%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>27,44%</t>
+    <t>28,28%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -215,49 +209,49 @@
     <t>83,75%</t>
   </si>
   <si>
-    <t>32,01%</t>
+    <t>33,49%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>67,99%</t>
+    <t>66,51%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -269,13 +263,13 @@
     <t>93,85%</t>
   </si>
   <si>
-    <t>64,55%</t>
+    <t>69,93%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>75,71%</t>
+    <t>74,66%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -284,13 +278,13 @@
     <t>6,15%</t>
   </si>
   <si>
-    <t>35,45%</t>
+    <t>30,07%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>24,29%</t>
+    <t>25,34%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -299,49 +293,49 @@
     <t>72,39%</t>
   </si>
   <si>
-    <t>27,49%</t>
+    <t>28,74%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>72,51%</t>
+    <t>71,26%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>20,77%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -350,109 +344,109 @@
     <t>84,89%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046B324C-DD63-4E26-8696-F7198838EB0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CF795D-8BB1-4AE8-876A-4D8AEBF59D31}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1301,7 +1295,7 @@
         <v>1965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -1319,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>28</v>
@@ -1331,10 +1325,10 @@
         <v>16179</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1352,7 +1346,7 @@
         <v>2187</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -1373,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1382,13 +1376,13 @@
         <v>2186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,7 +1438,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1459,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
@@ -1471,10 +1465,10 @@
         <v>12510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1486,10 +1480,10 @@
         <v>20814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1513,7 +1507,7 @@
         <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1522,13 +1516,13 @@
         <v>1022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1537,13 +1531,13 @@
         <v>1022</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,7 +1593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1611,10 +1605,10 @@
         <v>4877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1626,13 +1620,13 @@
         <v>15758</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -1641,13 +1635,13 @@
         <v>20636</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1656,13 @@
         <v>947</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1677,13 +1671,13 @@
         <v>2835</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1692,13 +1686,13 @@
         <v>3781</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>28</v>
@@ -1781,10 +1775,10 @@
         <v>14051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -1796,10 +1790,10 @@
         <v>18187</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -1823,7 +1817,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1832,13 +1826,13 @@
         <v>921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -1847,13 +1841,13 @@
         <v>921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,7 +1903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1921,10 +1915,10 @@
         <v>5157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -1936,13 +1930,13 @@
         <v>38544</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -1951,13 +1945,13 @@
         <v>43701</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1966,13 @@
         <v>1967</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -1987,13 +1981,13 @@
         <v>9488</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2002,13 +1996,13 @@
         <v>11455</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2058,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2076,13 +2070,13 @@
         <v>16558</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -2091,13 +2085,13 @@
         <v>55111</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -2106,13 +2100,13 @@
         <v>71668</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2121,13 @@
         <v>2948</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2142,13 +2136,13 @@
         <v>4250</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2157,13 +2151,13 @@
         <v>7198</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2225,13 @@
         <v>53861</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>189</v>
@@ -2246,13 +2240,13 @@
         <v>207072</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>241</v>
@@ -2261,13 +2255,13 @@
         <v>260932</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,13 +2276,13 @@
         <v>10815</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -2297,13 +2291,13 @@
         <v>25233</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -2312,13 +2306,13 @@
         <v>36049</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,7 +2368,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
